--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\SRPbVT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5D2952-C994-4A7A-A5D4-55036217A8F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="10710"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>SRPbVT Separately Regulated Pollutants by Vehicle Type</t>
   </si>
@@ -37,12 +43,6 @@
     <t>U.S. EPA</t>
   </si>
   <si>
-    <t>https://www.epa.gov/criteria-air-pollutants/naaqs-table</t>
-  </si>
-  <si>
-    <t>NAAQS Table</t>
-  </si>
-  <si>
     <t>Ships</t>
   </si>
   <si>
@@ -70,12 +70,6 @@
     <t>so we consider VOCs to be a separately-regulated pollutant whenever NOx/NO2 is separately-regulated.</t>
   </si>
   <si>
-    <t>VOCs</t>
-  </si>
-  <si>
-    <t>BC, OC</t>
-  </si>
-  <si>
     <t>As these are subsets of PM10 and sometimes PM2.5, we consider them to be separately-regulated whenever</t>
   </si>
   <si>
@@ -194,12 +188,51 @@
   </si>
   <si>
     <t>motorbikes</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>We consider 2- and 3-wheelers together for India.</t>
+  </si>
+  <si>
+    <t>We use US values for rail, aircraft, and ships.</t>
+  </si>
+  <si>
+    <t>Automative Research Association of India (ARAI)</t>
+  </si>
+  <si>
+    <t>https://www.araiindia.com/pdf/Indian_Emission_Regulation_Booklet.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Emissions Regulations </t>
+  </si>
+  <si>
+    <t>Bharat Stage - VI norms - 2,3 wheelers (p1,17); LDVs (p29); HDVs (p47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India's latest BS-VI emission standards are applicable for on-road vehicles. </t>
+  </si>
+  <si>
+    <t>CO2-</t>
+  </si>
+  <si>
+    <t>VOCs-</t>
+  </si>
+  <si>
+    <t>BC, OC-</t>
+  </si>
+  <si>
+    <t>Sox-</t>
+  </si>
+  <si>
+    <t>F-gases-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,15 +555,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,227 +587,247 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
+      <c r="B5" s="3">
+        <v>2018</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>11</v>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
         <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
         <v>2009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
+      <c r="A31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>40</v>
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>17</v>
+      <c r="A41" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>46</v>
+      <c r="A49" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>31</v>
+      <c r="A53" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>35</v>
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -784,13 +837,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -798,46 +853,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -858,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -878,7 +936,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -899,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -919,7 +977,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -960,7 +1018,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1001,7 +1059,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1042,7 +1100,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1063,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
